--- a/frontend/src/common/demo.xlsx
+++ b/frontend/src/common/demo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -479,20 +479,22 @@
     <tabColor rgb="BFCA000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R65"/>
   <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="3" width="32" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30" style="1" customWidth="1"/>
-    <col min="16" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" ht="40" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,24 +555,523 @@
         <v>18</v>
       </c>
       <c r="G2" s="4">
-        <v>43757.39628231482</v>
+        <v>43757.62333859954</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="4">
+        <v>43757.62333859954</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
-        <v>43757.39628231482</v>
+      <c r="G65" s="4">
+        <v>43757.62333859954</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1" verticalCentered="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
-  <headerFooter>
-    <firstHeader>Hello Exceljs</firstHeader>
-    <firstFooter>Hello World</firstFooter>
+  <headerFooter differentFirst="1">
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+    <evenFooter>第 &amp;P 页，共 &amp;N 页</evenFooter>
+    <firstHeader>&amp;L对照部门: 变态反应科 &amp;C&amp;"Arial,Regular"盘点人
+ 填表说明: &amp;KFFFFFF00黄色是必填项，其他部分不要修改 &amp;R&amp;B科主任签名
+	&amp;D</firstHeader>
   </headerFooter>
 </worksheet>
 </file>